--- a/learn/tiedaoworst1.xlsx
+++ b/learn/tiedaoworst1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="986">
   <si>
     <t>看片会举办过了，电影里有房祖名，而且戏份很多，片方一直隐瞒未作任何宣传，这是欺骗大众吧？！不好意思，拒绝！柯震东在小时代镜头被删光，房祖名还有着主演的戏份，呵呵。。。</t>
   </si>
@@ -777,193 +777,94 @@
     <t>打着成龙的名字，为儿子的默默复出铺路。唉。</t>
   </si>
   <si>
-    <t>阿心在哪里</t>
-  </si>
-  <si>
     <t>房祖名为何还没被禁？</t>
   </si>
   <si>
-    <t>超级英雄发骚友</t>
-  </si>
-  <si>
     <t>成龙我对你真tm失望！想偷偷摸摸捧自己的毒狗儿子？？你做梦！！吸了毒就tm滚远一点！别来大银幕祸害人民！</t>
   </si>
   <si>
-    <t>诸葛风行</t>
-  </si>
-  <si>
     <t>有房祖名的片子，一星无误。这是对禁毒战线上所有英雄的最大侮辱！</t>
   </si>
   <si>
-    <t>朕的裤衩去哪了</t>
-  </si>
-  <si>
     <t>什么鬼，男二是房祖名？虽然我很理解大哥你对儿子的感情。。。但是。。这就有点。。</t>
   </si>
   <si>
-    <t>爱.</t>
-  </si>
-  <si>
     <t>为什么有房祖名</t>
   </si>
   <si>
-    <t>锦绣瓶子</t>
-  </si>
-  <si>
     <t>成龙私心有房祖名戏份还不少。 电影作为一部喜剧挺好的，笑点足，大场面做的也十分刺激紧张，故事情节流畅，主角团人物个性鲜明。本身喜欢喜剧，如果不是龙太子在，会给五星。</t>
   </si>
   <si>
-    <t>蝉鸣春风吹</t>
-  </si>
-  <si>
     <t>年度抗日神剧</t>
   </si>
   <si>
-    <t>掉地上的爆米花</t>
-  </si>
-  <si>
     <t>别的不说，隐瞒房祖名这个有点过分了，而且不是友情出演什么的，而是戏份很多的角色。不是不允许人家知错就改，但是观众也有他们的选择权，他们有权选择接不接受这类明星。不光是这些犯过错的明星，一个普通明星观众也是有喜好的。你这样隐瞒了，就是不对，是诚信问题。</t>
   </si>
   <si>
-    <t>杨傻宽</t>
-  </si>
-  <si>
     <t>我靠，房祖名啊，本来以为摆渡人够烂了，这电影更烂</t>
   </si>
   <si>
-    <t>扎多</t>
-  </si>
-  <si>
     <t>弱智的搞笑，关键是，有吸毒犯，事先没有任何说明，这是赤裸裸的欺骗！有人说给他一个机会，但谁给牺牲的缉毒警一个活过来的机会？有人说唐宁也吸毒，但他是做了多少公益才得到观众的原谅？这才多久？成龙和广电都在欺骗！从此成龙粉转路！他是不差我一个粉丝，我也以鄙视他为荣！</t>
   </si>
   <si>
-    <t>驴驴</t>
-  </si>
-  <si>
     <t>QNM的抗日神剧</t>
   </si>
   <si>
-    <t>神说你好棒</t>
-  </si>
-  <si>
     <t>没看，为房祖名打一星</t>
   </si>
   <si>
-    <t>默客</t>
-  </si>
-  <si>
     <t>这是一部把日本人当傻逼、娱乐观众、自娱自乐的电影。</t>
   </si>
   <si>
-    <t>懋期</t>
-  </si>
-  <si>
     <t>涉毒艺人请自重</t>
   </si>
   <si>
-    <t>就是你大爷</t>
-  </si>
-  <si>
     <t>老了，，</t>
   </si>
   <si>
-    <t>peterpen</t>
-  </si>
-  <si>
     <t>呵呵房先生。不送。我只是奇怪，怎么过的审，要不就是瞎眼，要不就是双标，某部门真恶心。</t>
   </si>
   <si>
-    <t>无敌小珩</t>
-  </si>
-  <si>
     <t>当看到房祖名那一刹那 感觉被耍了</t>
   </si>
   <si>
-    <t>爱鸟的鸟人</t>
-  </si>
-  <si>
     <t>抗日神剧啊</t>
   </si>
   <si>
-    <t>雪在烧</t>
-  </si>
-  <si>
     <t>吸毒后能如此高调复出的大概也只有房祖名了，看看有个好爹多重要，简直可以逆转人生啊。反观柯震东，出来走个红毯都被人笑长残了，下面评论一片喊滚的。此刻我也想说，吸毒艺人，滚！</t>
   </si>
   <si>
-    <t>云深不知处</t>
-  </si>
-  <si>
     <t>虽然有一万个理由喜欢你，但是因为房祖名，和这种欲盖弥彰的因为，只能一星。</t>
   </si>
   <si>
-    <t>小喵儿的照相馆</t>
-  </si>
-  <si>
     <t>听说有吸毒狗，站队。除了片方隐瞒房弟弟参演之外，人日也是主因。我没看过电影，就给一星了，怎么样！打算去看摆渡人的，结果也是烂片叫我咋办！</t>
   </si>
   <si>
-    <t>懒小欢</t>
-  </si>
-  <si>
-    <t>锌</t>
-  </si>
-  <si>
     <t>吸毒狗无法容忍</t>
   </si>
   <si>
-    <t>天边一朵云</t>
-  </si>
-  <si>
     <t>凡是把我方拔高化、把鬼子弱智化、把战争儿戏化的抗日神片，都特么只配得一星。 3D渣效果更是让人发指。</t>
   </si>
   <si>
-    <t>不吃香菜</t>
-  </si>
-  <si>
     <t>成龙，房祖名也是大写的辣鸡了。。搞的这一出，暗戳戳的。</t>
   </si>
   <si>
-    <t>脱斯卡纳</t>
-  </si>
-  <si>
     <t>抗日神剧系列…</t>
   </si>
   <si>
-    <t>紫薇格格</t>
-  </si>
-  <si>
     <t>弱智剧情，抗日神剧的电影版吧</t>
   </si>
   <si>
-    <t>我喜欢框框</t>
-  </si>
-  <si>
-    <t>老紉</t>
-  </si>
-  <si>
     <t>抗日神片</t>
   </si>
   <si>
-    <t>呆萌君</t>
-  </si>
-  <si>
     <t>房祖名负分滚粗</t>
   </si>
   <si>
-    <t>yool</t>
-  </si>
-  <si>
     <t>很一般，又一抗日神剧</t>
   </si>
   <si>
-    <t>Nirvana</t>
-  </si>
-  <si>
     <t>抗日神剧哈哈。</t>
-  </si>
-  <si>
-    <t>半只烟烟半只</t>
   </si>
   <si>
     <r>
@@ -1004,1045 +905,510 @@
     </r>
   </si>
   <si>
-    <t>古玉</t>
-  </si>
-  <si>
     <t>为什么会有房祖明?</t>
   </si>
   <si>
     <t>因为吸毒房电影扣3星</t>
   </si>
   <si>
-    <t>ToGlory</t>
-  </si>
-  <si>
-    <t>我爱吃仙贝</t>
-  </si>
-  <si>
     <t>太难看了什么玩意儿啊</t>
   </si>
   <si>
-    <t>宫永咲</t>
-  </si>
-  <si>
     <t>不说房祖名的问题 看看血战钢锯岭 再看看这部</t>
   </si>
   <si>
-    <t>梦中格桑</t>
-  </si>
-  <si>
     <t>吸毒狗狗带吧</t>
   </si>
   <si>
-    <t>Tracey溪</t>
-  </si>
-  <si>
     <t>抗日神剧啊 各种抗战英雄都是一股台普 真的棒棒哒👍剪辑剪的乱七八糟的 导演啊 你是分裂逼吗😠</t>
   </si>
   <si>
-    <t>夜如何其</t>
-  </si>
-  <si>
     <t>居然有房祖名</t>
   </si>
   <si>
-    <t>南</t>
-  </si>
-  <si>
     <t>吸毒为什么还能隐瞒复出做重要角色</t>
   </si>
   <si>
-    <t>Amie</t>
-  </si>
-  <si>
     <t>换导演吧</t>
   </si>
   <si>
-    <t>八宝镇魂包子</t>
-  </si>
-  <si>
     <t>成龙再这么下去真的晚节不保了</t>
   </si>
   <si>
-    <t>菊子</t>
-  </si>
-  <si>
     <t>宣传期只字未提的房祖名竟然也是重要角色，顿时感觉不好了！真会耍心机</t>
   </si>
   <si>
-    <t>拉文吹</t>
-  </si>
-  <si>
     <t>不想看到吸毒的</t>
   </si>
   <si>
-    <t>Articuno</t>
-  </si>
-  <si>
     <t>比谁智商低么...</t>
   </si>
   <si>
-    <t>ghuhon_jess</t>
-  </si>
-  <si>
     <t>针对毒太子给的分，有点儿对不起其他演员了</t>
   </si>
   <si>
-    <t>wingsuet</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>黑龙江彭于晏</t>
-  </si>
-  <si>
     <t>成龙挑战了一次广电的底线和国家法规，这种有吸毒艺人的电影能上映，背后肯定有很肮脏的交易！</t>
   </si>
   <si>
-    <t>Sheng</t>
-  </si>
-  <si>
     <t>吸毒房 + 成蟲電影 = 滾粗</t>
   </si>
   <si>
-    <t>槑森淼</t>
-  </si>
-  <si>
     <t>竟然有吸毒者，所以只好一星差评，虽然跟摆渡人以及长城相比，这部电影算中规中矩了，很成龙风</t>
   </si>
   <si>
-    <t>Ogurishun</t>
-  </si>
-  <si>
     <t>拒绝污点艺人，成龙是什么背景，让广电不封杀这电影，容忍房祖名吸毒。垃圾。</t>
   </si>
   <si>
-    <t>尚成岑</t>
-  </si>
-  <si>
     <t>搞什么房祖名这吸毒的也参演了垃圾。另外，电视上抗日神剧够多了</t>
   </si>
   <si>
-    <t>Zo0om</t>
-  </si>
-  <si>
     <t>房祖名是男二。。</t>
   </si>
   <si>
-    <t>豆瓣豆瓣酱</t>
-  </si>
-  <si>
     <t>都不知道有毒太子在演戏，镜头还这么多，倒胃口！</t>
   </si>
   <si>
-    <t>海风冷冷的吹不</t>
-  </si>
-  <si>
     <t>虽然影片宣传时隐去了房祖名，但做为一名曾经的吸毒者已经接受了法律的制裁，社会就理应给他一个改过的机会。只要不再重蹈覆辙，误入歧途有好！</t>
   </si>
   <si>
-    <t>骑士</t>
-  </si>
-  <si>
     <t>强行搞笑，给王凯一颗星，成龙一颗星，吸毒扣一星，表情包演的还是自己啊尴尬，</t>
   </si>
   <si>
-    <t>a小叔</t>
-  </si>
-  <si>
     <t>没管好吸毒的</t>
   </si>
   <si>
-    <t>任小天</t>
-  </si>
-  <si>
     <t>不知道后面的几个智障在笑个卵子</t>
   </si>
   <si>
-    <t>迷惘</t>
-  </si>
-  <si>
     <t>困得我要睡着了</t>
   </si>
   <si>
-    <t>sunice1314</t>
-  </si>
-  <si>
     <t>成龙老了，可惜我凯。</t>
   </si>
   <si>
-    <t>FUUU</t>
-  </si>
-  <si>
     <t>无聊！！！笑点尴尬！！！浪费时间！！！</t>
   </si>
   <si>
-    <t>萧君萧晓</t>
-  </si>
-  <si>
     <t>注水的毒太子电影一星不谢</t>
   </si>
   <si>
-    <t>正义的使者</t>
-  </si>
-  <si>
     <t>父爱如山 套路 还行</t>
   </si>
   <si>
     <t>父爱如山！</t>
   </si>
   <si>
-    <t>千寻亿选</t>
-  </si>
-  <si>
-    <t>Toni</t>
-  </si>
-  <si>
     <t>为什么不能打负分？隐瞒吸毒者、欺诈消费者、脑残剧情、浪费时间、浪费金钱、就不能是负分？</t>
   </si>
   <si>
-    <t>whoph</t>
-  </si>
-  <si>
     <t>抗日神剧加小丑闹剧加流氓大哥加吸毒儿子。</t>
   </si>
   <si>
-    <t>Yome✖</t>
-  </si>
-  <si>
     <t>日軍要真的這智商 中國哪裡需要抗戰8年 8天都不用吧...</t>
   </si>
   <si>
-    <t>幻莘魔瞳</t>
-  </si>
-  <si>
     <t>看完血战钢锯岭，再看铁道飞虎，真是觉得讽刺与悲哀，弱化曾经侵略中国的日本人，真是对抗战英雄与死难者的亵渎！这也是我无比排斥国产抗日神剧的根本原因！</t>
   </si>
   <si>
-    <t>壬者</t>
-  </si>
-  <si>
     <t>羞愤难当！成龙套路包袱普通话永远维持上世纪九十年代水平不说，这次竟然为了给吸毒儿子出路在爱国电影里瞒天过海？！王大陆一口台湾饰演受伤的八路军，是以为大家都不会说普通话？王凯一脸严肃地演喜剧，包袱抖得太沉重，我看着都累。竟然只有黄子韬略显正常画风，得益于他的全网表情包。</t>
   </si>
   <si>
-    <t>曜</t>
-  </si>
-  <si>
     <t>有一种烂叫你说不出它烂在哪里，却让你在观影半小时后如坐针毡的烂。</t>
   </si>
   <si>
-    <t>光之</t>
-  </si>
-  <si>
     <t>写的鬼子跟弱智一样。王大陆怎么活下来的？还有王大陆作为八路军牙齿怎么那么白</t>
   </si>
   <si>
-    <t>三文鱼</t>
-  </si>
-  <si>
     <t>什么鬼</t>
   </si>
   <si>
-    <t>海蓝</t>
-  </si>
-  <si>
     <t>这片儿里有房祖名！记住！吸毒的！</t>
   </si>
   <si>
-    <t>无欲则刚</t>
-  </si>
-  <si>
     <t>竟然有房祖名</t>
   </si>
   <si>
-    <t>老邓..</t>
-  </si>
-  <si>
     <t>一星给太子</t>
   </si>
   <si>
-    <t>欧耶！</t>
-  </si>
-  <si>
-    <t>pewter</t>
-  </si>
-  <si>
     <t>特别尴尬。</t>
   </si>
   <si>
-    <t>= =</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>竟然有房祖名?</t>
   </si>
   <si>
-    <t>黄花菜哪有春天</t>
-  </si>
-  <si>
     <t>2016.12.26.好尴尬的抗日神剧。全场人从头笑到尾，我完全get不到笑点！</t>
   </si>
   <si>
-    <t>qzuser</t>
-  </si>
-  <si>
     <t>烂就一个字</t>
   </si>
   <si>
-    <t>哥斯拉</t>
-  </si>
-  <si>
     <t>房毒名是隐藏男二号 就这样</t>
   </si>
   <si>
-    <t>别·疼</t>
-  </si>
-  <si>
     <t>献给注水的房事龙</t>
   </si>
   <si>
-    <t>愿我坚持有意义</t>
-  </si>
-  <si>
     <t>成龙个完犊子玩意</t>
   </si>
   <si>
-    <t>泠筠</t>
-  </si>
-  <si>
     <t>负分是给暗搓搓占有很大戏份某位吸毒演员。我凯凯王手真好看，黄子韬也蛮可爱的。</t>
   </si>
   <si>
-    <t>msazhou</t>
-  </si>
-  <si>
     <t>吸毒还能拍电影，不愧是星二代，倒过来还要说网友故意打低分？严重破坏了国产电影环境？？？呵呵</t>
   </si>
   <si>
-    <t>Ubique</t>
-  </si>
-  <si>
     <t>没看。</t>
   </si>
   <si>
-    <t>ccp</t>
-  </si>
-  <si>
     <t>给差评法律不允许吗</t>
   </si>
   <si>
-    <t>拉拉手唱唱歌</t>
-  </si>
-  <si>
     <t>电影挺不错的啊，给一星没毛病。</t>
   </si>
   <si>
-    <t>壹贰得贰</t>
-  </si>
-  <si>
     <t>全部一星。</t>
   </si>
   <si>
-    <t>安东</t>
-  </si>
-  <si>
     <t>提前打了个一星，还真是一点都不冤枉你。</t>
   </si>
   <si>
-    <t>七美（成都）</t>
-  </si>
-  <si>
     <t>我不喜欢，我是素质差的豆瓣网民，接受人民批评</t>
   </si>
   <si>
-    <t>洞里火车</t>
-  </si>
-  <si>
     <t>沙壁电影还不让人评论了，来约谈我吧</t>
   </si>
   <si>
-    <t>密思凡</t>
-  </si>
-  <si>
     <t>我的天，日报不顾吸毒龙太子，反倒说人民不行，我的三观哇！！！</t>
   </si>
   <si>
-    <t>醉西风</t>
-  </si>
-  <si>
     <t>瑟瑟发抖的打了1分</t>
   </si>
   <si>
-    <t>hamming</t>
-  </si>
-  <si>
     <t>坚决差评</t>
   </si>
   <si>
-    <t>乐逸</t>
-  </si>
-  <si>
     <t>有房祖名！！骗子！！</t>
   </si>
   <si>
-    <t>坦途</t>
-  </si>
-  <si>
     <t>老子看什么电影，你要管。 老子看了电影之后，要打多少分，你也要管。</t>
   </si>
   <si>
-    <t>四十萬莉</t>
-  </si>
-  <si>
     <t>以实际行动反抗污点艺人</t>
   </si>
   <si>
-    <t>正切函数</t>
-  </si>
-  <si>
     <t>电影拍那么烂，还不允许观众打一星吗？其实已经不是电影的问题了。成龙大哥你这么红专，怎么脸还是那么黑啊？</t>
   </si>
   <si>
-    <t>杀手的小学同学</t>
-  </si>
-  <si>
     <t>我不是针对谁，我只想说在座的各位都是——垃圾</t>
   </si>
   <si>
-    <t>少吃多动早点睡</t>
-  </si>
-  <si>
     <t>戏还成，典型成龙喜剧，吸毒贩毒人员参演都还能上映，论一个好爹的重要性</t>
   </si>
   <si>
-    <t>安安安先生</t>
-  </si>
-  <si>
     <t>烂片还不能让人说了？</t>
   </si>
   <si>
-    <t>cedricia</t>
-  </si>
-  <si>
     <t>父爱如山 呵呵哒</t>
   </si>
   <si>
-    <t>旨鷊</t>
-  </si>
-  <si>
     <t>伤害你国电影产业，人人有责。</t>
   </si>
   <si>
-    <t>LeonKenndy</t>
-  </si>
-  <si>
     <t>抱歉，因为政治正确，给了五星，别介意，什么？一星？抱歉，手滑。</t>
   </si>
   <si>
-    <t>回头的小妖精</t>
-  </si>
-  <si>
     <t>恶意差评</t>
   </si>
   <si>
-    <t>kindsos</t>
-  </si>
-  <si>
     <t>一星！一星！一星！</t>
   </si>
   <si>
-    <t>巴黎之火</t>
-  </si>
-  <si>
     <t>打一星咋的了？吃你家大米了？</t>
   </si>
   <si>
-    <t>Leann</t>
-  </si>
-  <si>
     <t>一星为净！</t>
   </si>
   <si>
-    <t>kom.S、</t>
-  </si>
-  <si>
     <t>拒绝黄赌毒。。。</t>
   </si>
   <si>
-    <t>秦九懒洋洋</t>
-  </si>
-  <si>
-    <t>leen</t>
-  </si>
-  <si>
     <t>就冲瞒天过海他儿子的事情就必须一分</t>
   </si>
   <si>
-    <t>粒小喵</t>
-  </si>
-  <si>
     <t>吸毒还来赚形象钱就酱</t>
   </si>
   <si>
-    <t>佐藤健的痣</t>
-  </si>
-  <si>
     <t>宣传完全不带房祖名差评！看了电影，戏份不弱于3番王凯，和成龙争论鼻子那里真是有病……强行找梗。剧情衔接略生硬，一星给王凯和韬韬，一星给动作戏份，一星给插曲。</t>
   </si>
   <si>
-    <t>奔跑的猪</t>
-  </si>
-  <si>
     <t>吸过毒的明星出来如何如何，都不值得原谅，为了培养自己的下一代，脸都不要了吗？</t>
   </si>
   <si>
-    <t>大银河</t>
-  </si>
-  <si>
     <t>这很21世纪的成龙。为了带自己儿子也是拼了</t>
   </si>
   <si>
-    <t>TwT</t>
-  </si>
-  <si>
     <t>差评不会毁了电影产业，而烂片和烂人会</t>
   </si>
   <si>
-    <t>Viva La Vida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>趁还有机会打一星的时候，赶紧打了，免得以后国产电影五星起步，五星以下就是不爱国┑(￣Д ￣)┍</t>
   </si>
   <si>
-    <t>bearjess</t>
-  </si>
-  <si>
-    <t>国产烂片，根本就没用心去拍，糊弄人赚钱工具，该</t>
-  </si>
-  <si>
-    <t>木瑾之</t>
-  </si>
-  <si>
     <t>...房事龙你好。</t>
   </si>
   <si>
-    <t>武陵渔隐</t>
-  </si>
-  <si>
     <t>成龙妄想带着吸毒儿子的洗白之作，的确用心良苦。观影时没想太多，但冷静下来后觉得整部电影透着对电影的不尊重，对故人的亵渎。一群人给你儿子的过错垫背，只为扶他重新上位。你一把老骨头能折腾多久？请专业一点，对得起你初时拍电影的初衷。</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
     <t>有房祖名就应该0分！公众人物犯了大错，就应该禁止他们再出现在公众面前，继续当明星。法律对他们的惩罚是一回事，行业自律的惩罚和公众舆论的惩罚是另一回事。有成龙那样的父亲，做什么不行，为什么要挑战公众底线又跳出来演电影？你让那些因为嫖娼、甚至同性恋被封杀的艺人情何以堪？！</t>
   </si>
   <si>
-    <t>noname</t>
-  </si>
-  <si>
     <t>这是战争片？</t>
   </si>
   <si>
-    <t>最肯忘却古人诗</t>
-  </si>
-  <si>
     <t>既然官方钦定了大家刷票，那为啥不刷呢？</t>
   </si>
   <si>
-    <t>一只遛狗的熊</t>
-  </si>
-  <si>
     <t>给毒星呵呵哒</t>
   </si>
   <si>
-    <t>spartan117</t>
-  </si>
-  <si>
     <t>成龙带着房祖名复出的电影，特地选了一个绝对不会有问题的题材，结果就成了升级版的《举起手来》，真没有想到多年以后还会有人做这种事。之所以还有二星是因为我还是笑了和里面的自我调侃，还有很久以前记得自己看过一部叫《刺陵》的电影。</t>
   </si>
   <si>
-    <t>股行者</t>
-  </si>
-  <si>
     <t>成龙是SB？</t>
   </si>
   <si>
-    <t>幕小后</t>
-  </si>
-  <si>
     <t>屎一样的东西。</t>
   </si>
   <si>
-    <t>金权</t>
-  </si>
-  <si>
     <t>垃圾片。</t>
   </si>
   <si>
-    <t>老锅</t>
-  </si>
-  <si>
     <t>为了日人民再次一星！</t>
   </si>
   <si>
-    <t>猫记</t>
-  </si>
-  <si>
     <t>看了新闻专门来打一星点我</t>
   </si>
   <si>
-    <t>袁湘琴</t>
-  </si>
-  <si>
     <t>会不会被封号啊？好担心。。</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>为了蹭热点刷一星</t>
   </si>
   <si>
-    <t>憨八嘎</t>
-  </si>
-  <si>
     <t>公民义务</t>
   </si>
   <si>
-    <t>凸凸</t>
-  </si>
-  <si>
     <t>可惜不能打负分！</t>
   </si>
   <si>
-    <t>花影暖</t>
-  </si>
-  <si>
     <t>一星收好</t>
   </si>
   <si>
-    <t>凤凰座流星雨</t>
-  </si>
-  <si>
     <t>房祖名该杀！</t>
   </si>
   <si>
-    <t>..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shady</t>
-  </si>
-  <si>
     <t>據説這是支豚最後一次團結起來反擊國家機器的機會，大家不要錯過。</t>
   </si>
   <si>
-    <t>Liberty。</t>
-  </si>
-  <si>
     <t>不向恶势力低头！</t>
   </si>
   <si>
-    <t>发飙的大智</t>
-  </si>
-  <si>
     <t>有房祖名，而且之前宣传的时候没说，就冲着这一点，零分。</t>
   </si>
   <si>
-    <t>袁威</t>
-  </si>
-  <si>
     <t>由于央妈智障，以后凡是烂片都只给一星</t>
   </si>
   <si>
-    <t>地球人</t>
-  </si>
-  <si>
     <t>良民日爆真好看</t>
   </si>
   <si>
-    <t>robbin</t>
-  </si>
-  <si>
     <t>让你们欺负豆瓣！</t>
   </si>
   <si>
-    <t>懒人维维</t>
-  </si>
-  <si>
     <t>难看死了，还有吸毒的人参加演出，是鼓励我们我们吸毒呢，说好的劣迹艺人不用呢</t>
   </si>
   <si>
-    <t>会飞的巴斯光年</t>
-  </si>
-  <si>
     <t>嗯哼，我就打一星</t>
   </si>
   <si>
-    <t>抵制圈钱烂片</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
     <t>人民网新年快乐！</t>
   </si>
   <si>
-    <t>老衲法号梦遗</t>
-  </si>
-  <si>
     <t>为了人民日爆，冲啊</t>
   </si>
   <si>
-    <t>金三两</t>
-  </si>
-  <si>
     <t>滚</t>
   </si>
   <si>
-    <t>零下十亿度</t>
-  </si>
-  <si>
-    <t>夏无敌Woody</t>
-  </si>
-  <si>
     <t>真鸡巴难看，一群大傻屌。皇上带着太子玩儿票，什么东西。</t>
   </si>
   <si>
-    <t>笑死为止</t>
-  </si>
-  <si>
     <t>恶意伤害中国电影产业</t>
   </si>
   <si>
-    <t>凉请</t>
-  </si>
-  <si>
     <t>最近豆瓣被喷 我很不爽</t>
   </si>
   <si>
-    <t>妙妙&amp;呆呆</t>
-  </si>
-  <si>
     <t>电影挺好看，报纸不咋地，就酱</t>
   </si>
   <si>
-    <t>小灵仙儿</t>
-  </si>
-  <si>
     <t>一星送给房祖名</t>
   </si>
   <si>
-    <t>BlankYoung</t>
-  </si>
-  <si>
     <t>祖名啊，男二的感觉好吗</t>
   </si>
   <si>
-    <t>大烟枪</t>
-  </si>
-  <si>
     <t>实行《影评基本法》后的第一票。</t>
   </si>
   <si>
-    <t>knights</t>
-  </si>
-  <si>
     <t>为了儿子真是用心良苦啊</t>
   </si>
   <si>
-    <t>不回头</t>
-  </si>
-  <si>
     <t>ccav 忘我豆瓣之心不死</t>
   </si>
   <si>
-    <t>肥嘟嘟左卫门佐</t>
-  </si>
-  <si>
     <t>一星为净</t>
   </si>
   <si>
-    <t>遥远</t>
-  </si>
-  <si>
     <t>这片子有房祖名，吸毒者就这么复出了？有成龙为了电影炒作痛批某演员耍大牌之前能不能先管教好自己儿子，观众事前应该有之情权吧，为什么不告诉观众有房祖名参演。对得起缉毒警察的付出吗。就单纯影片来讲也是烂片，恶趣味搞笑，老套路，老梗，真的笑不出来</t>
   </si>
   <si>
-    <t>水神</t>
-  </si>
-  <si>
     <t>為了言論自由</t>
   </si>
   <si>
-    <t>冷娃</t>
-  </si>
-  <si>
     <t>滚你妈逼。</t>
   </si>
   <si>
-    <t>糯米丸子</t>
-  </si>
-  <si>
     <t>听说有吸毒先锋房祖名，友情一星不谢</t>
   </si>
   <si>
-    <t>荆轲刺秦王</t>
-  </si>
-  <si>
     <t>真特码难看！！！</t>
   </si>
   <si>
-    <t>lair2lie</t>
-  </si>
-  <si>
     <t>毒星房祖名演抗战片男二…………⊙_⊙</t>
   </si>
   <si>
-    <t>剑岚成旺</t>
-  </si>
-  <si>
     <t>看到吸毒者男二号</t>
   </si>
   <si>
-    <t>Lin</t>
-  </si>
-  <si>
     <t>就给一星，怎么了</t>
   </si>
   <si>
-    <t>还原精灵</t>
-  </si>
-  <si>
     <t>据说打一星会被跨省？</t>
   </si>
   <si>
-    <t>aaron</t>
-  </si>
-  <si>
     <t>烂！烂片！</t>
   </si>
   <si>
-    <t>Saint丶💤</t>
-  </si>
-  <si>
     <t>为了吸毒者！为了人民！我来站个队，一星不谢。</t>
   </si>
   <si>
-    <t>希希</t>
-  </si>
-  <si>
     <t>就冲针对豆瓣的所谓质疑，给烂片都打个低分！不要侮辱群众的审美能力！</t>
   </si>
   <si>
-    <t>梅雪遥芳</t>
-  </si>
-  <si>
     <t>就是一星</t>
   </si>
   <si>
-    <t>sei</t>
-  </si>
-  <si>
     <t>吸毒还来演电影，人民日版也一星滚粗</t>
   </si>
   <si>
-    <t>莫说我帅</t>
-  </si>
-  <si>
     <t>垃圾，吸毒的，死开</t>
   </si>
   <si>
-    <t>艾尔家的星期一</t>
-  </si>
-  <si>
     <t>exm????有房祖名！！！！我以为我跑错了影厅！！！！！！！</t>
   </si>
   <si>
-    <t>此非彼·</t>
-  </si>
-  <si>
     <t>滚粗，人民日报！</t>
   </si>
   <si>
-    <t>曾是年华</t>
-  </si>
-  <si>
     <t>打一分是因为对吸毒者零容忍</t>
   </si>
   <si>
-    <t>苏酒</t>
-  </si>
-  <si>
     <t>一星给毒太子，上映前完全不知道竟然有他，戏份还这么重，大哥果然是大哥，恶心死了，以后所有片子一星预定</t>
   </si>
   <si>
-    <t>夏侯阿布</t>
-  </si>
-  <si>
     <t>还锁号吗</t>
   </si>
   <si>
-    <t>九点半</t>
-  </si>
-  <si>
     <t>我没看 我就想打一星</t>
   </si>
   <si>
-    <t>小神仙</t>
-  </si>
-  <si>
     <t>奉命前来表明对烂片的态度</t>
   </si>
   <si>
-    <t>松松小可爱</t>
-  </si>
-  <si>
     <t>让房祖名这种人复出就是对中国电影最大的侮辱。</t>
   </si>
   <si>
-    <t>dxpete_bz</t>
-  </si>
-  <si>
     <t>一❤一意为人民fuck爆服务</t>
   </si>
   <si>
-    <t>Siegismund</t>
-  </si>
-  <si>
     <t>一颗星，没毛病。</t>
   </si>
   <si>
-    <t>威震天天</t>
-  </si>
-  <si>
     <t>就不看 就差评 咋地吧</t>
   </si>
   <si>
-    <t>神探年糕糕</t>
-  </si>
-  <si>
     <t>有房祖名还能上映，还不让差评，赵老爷牛逼</t>
   </si>
   <si>
-    <t>菰城笑笑</t>
-  </si>
-  <si>
     <t>我是真的看过，笑点略尴尬。本来不准备打分了。既然人日发话，实事求是，打个两星，不多也不少。</t>
   </si>
   <si>
-    <t>以启山林</t>
-  </si>
-  <si>
     <t>怒刷一分！</t>
   </si>
   <si>
-    <t>欲说还羞</t>
-  </si>
-  <si>
     <t>老子没看过，但就是崇洋媚外！</t>
   </si>
   <si>
     <t>没看，不看，我不理智。</t>
   </si>
   <si>
-    <t>飞雨</t>
-  </si>
-  <si>
     <t>特意差评来了，咋了？不行？</t>
   </si>
   <si>
-    <t>波zai</t>
-  </si>
-  <si>
     <t>没看，一分献给中国电影生态环境。</t>
   </si>
   <si>
-    <t>二婶子不得不</t>
-  </si>
-  <si>
     <t>吸毒狗带</t>
   </si>
   <si>
-    <t>yata</t>
-  </si>
-  <si>
     <t>我给电影打几分关人民日报鸟事？</t>
   </si>
   <si>
-    <t>萌吗</t>
-  </si>
-  <si>
     <t>还真没看过，听说有吸毒不挂名明星？豆瓣为啥不能打零分？</t>
   </si>
   <si>
-    <t>月出皎兮</t>
-  </si>
-  <si>
     <t>吸毒演员狗带。</t>
   </si>
   <si>
-    <t>羁绊咯</t>
-  </si>
-  <si>
     <t>没有看，就是打一星</t>
   </si>
   <si>
-    <t>咩咩</t>
-  </si>
-  <si>
     <t>没看过 怎么没有负分</t>
   </si>
   <si>
-    <t>木月</t>
-  </si>
-  <si>
     <t>若批评不自由 则赞美无意义！！</t>
   </si>
   <si>
-    <t>约翰</t>
-  </si>
-  <si>
     <t>声援豆瓣</t>
   </si>
   <si>
-    <t>sunny||小桑</t>
-  </si>
-  <si>
     <t>吸毒零容忍</t>
   </si>
   <si>
-    <t>Alessia</t>
-  </si>
-  <si>
     <t>吸毒仔还想洗白</t>
   </si>
   <si>
-    <t>银铁</t>
-  </si>
-  <si>
     <t>是这样的，豆瓣崇洋媚外，人民日爆一语中的，样板戏赛高</t>
   </si>
   <si>
-    <t>已注销</t>
-  </si>
-  <si>
     <t>别的不说，影片里用了吸毒的人就只能打零分，可惜没有零星</t>
   </si>
   <si>
-    <t>svnnynight</t>
-  </si>
-  <si>
     <t>日人民保</t>
   </si>
   <si>
-    <t>760 mm Hg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我没看，我就想打个一星。</t>
   </si>
   <si>
@@ -2051,22 +1417,6 @@
   </si>
   <si>
     <t>苏铭年（6）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅唯笑【6】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影【6】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金书架【1，2】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小烨【3】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3060,6 +2410,1125 @@
   </si>
   <si>
     <t>hahahahahahey[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿心在哪里[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级英雄发骚友[1,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛风行[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕的裤衩去哪了[1,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱.[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣瓶子[1,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝉鸣春风吹[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉地上的爆米花[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨傻宽[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎多[1,2,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴驴[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神说你好棒[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默客[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懋期[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是你大爷[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peterpen[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌小珩[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱鸟的鸟人[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪在烧[1,3,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云深不知处[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小喵儿的照相馆[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒小欢[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锌[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天边一朵云[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃香菜[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱斯卡纳[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇格格[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢框框[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老紉[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆萌君[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yool[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nirvana[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半只烟烟半只[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古玉[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵呵[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToGlory[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱吃仙贝[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫永咲[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦中格桑[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracey溪[4,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜如何其[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amie[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八宝镇魂包子[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊子[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉文吹[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Articuno[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghuhon_jess[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wingsuet[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alan[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江彭于晏[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheng[1,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槑森淼[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ogurishun[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚成岑[1,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zo0om[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣豆瓣酱[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海风冷冷的吹不[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a小叔[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任小天[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惘[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunice1314[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUUU[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧君萧晓[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义的使者[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千寻亿选[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toni[1,2,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whoph[1,8,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yome✖[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻莘魔瞳[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壬者[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曜[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之[6,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三文鱼[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无欲则刚[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老邓..[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧耶！[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pewter[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= =[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花菜哪有春天[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qzuser[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥斯拉[[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别·疼[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿我坚持有意义[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泠筠[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msazhou[1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubique[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccp[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉手唱唱歌[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壹贰得贰[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七美（成都）[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞里火车[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密思凡[1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉西风[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamming[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐逸[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦途[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十萬莉[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正切函数[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀手的小学同学[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少吃多动早点睡[1,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安安安先生[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cedricia[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旨鷊[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeonKenndy[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回头的小妖精[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindsos[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎之火[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leann[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kom.S、[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦九懒洋洋[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leen[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒小喵[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤健的痣[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑的猪[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大银河[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwT[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viva La Vida[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瑾之[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵渔隐[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noname[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最肯忘却古人诗[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只遛狗的熊[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spartan117[1,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股行者[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕小后[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金权[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老锅[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫记[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁湘琴[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憨八嘎[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸凸[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花影暖[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰座流星雨[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shady[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberty。[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发飙的大智[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁威[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球人[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robbin[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人维维[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会飞的巴斯光年[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵制圈钱烂片[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青阳[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老衲法号梦遗[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三两[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下十亿度[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏无敌Woody[3,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑死为止[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉请[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙妙&amp;呆呆[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小灵仙儿[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlankYoung[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大烟枪[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knights[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回头[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥嘟嘟左卫门佐[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水神[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷娃[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米丸子[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆轲刺秦王[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lair2lie[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑岚成旺[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原精灵[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaron[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint丶💤[1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希希[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅雪遥芳[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sei[1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫说我帅[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾尔家的星期一[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此非彼·[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾是年华[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏酒[1,2,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯阿布[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九点半[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小神仙[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松松小可爱[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dxpete_bz[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siegismund[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威震天天[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神探年糕糕[1,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菰城笑笑[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以启山林[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲说还羞[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>813[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞雨[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波zai[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二婶子不得不[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yata[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌吗[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月出皎兮[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊咯[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木月[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny||小桑[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alessia[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银铁[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注销[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svnnynight[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760 mm Hg[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣不哭…</t>
+  </si>
+  <si>
+    <t>人民日报并不代表人民</t>
+  </si>
+  <si>
+    <t>一个星给我凯 吸毒的参演真恶心</t>
+  </si>
+  <si>
+    <t>再尽绵薄之力。</t>
+  </si>
+  <si>
+    <t>房太子一生黑，里面港台普通话发音真的是………</t>
+  </si>
+  <si>
+    <t>真的從沒有過惡意刷分，但是這個人民日報太噁心了，拿好吧</t>
+  </si>
+  <si>
+    <t>立场问题，捍卫权利！如果要奉旨删一星，那我勉强就打两星啰……</t>
+  </si>
+  <si>
+    <t>草菅民意，天理难容</t>
+  </si>
+  <si>
+    <t>呵呵呵呵呵呵</t>
+  </si>
+  <si>
+    <t>感人的父爱片</t>
+  </si>
+  <si>
+    <t>就一感觉，成龙老了</t>
+  </si>
+  <si>
+    <t>反正都被说有恶意了，那就这样吧，好的坏的都应该是我个人的主观感受，而不是你按着我的手逼我举个大拇指。</t>
+  </si>
+  <si>
+    <t>欺诈 国家不禁吸毒艺人吗</t>
+  </si>
+  <si>
+    <t>这里面日本人的 智商不仅是零那么简单····</t>
+  </si>
+  <si>
+    <t>意淫的抗日神剧，真烂。</t>
+  </si>
+  <si>
+    <t>对不起，伤害自己与伤害中国电影产业，我还是选后者</t>
+  </si>
+  <si>
+    <t>不但是烂片，还要勾结ZF说大家评论不好！</t>
+  </si>
+  <si>
+    <t>我行使我的审美判断力</t>
+  </si>
+  <si>
+    <t>现在吸毒演员都能洗白啦？真特么活久见！</t>
+  </si>
+  <si>
+    <t>恶心</t>
+  </si>
+  <si>
+    <t>没看过，来打一星，我就是水军，打我呀。每张烂片的电影票，都是给敌人送去的子弹。</t>
+  </si>
+  <si>
+    <t>没看</t>
+  </si>
+  <si>
+    <t>为什么不能退票，我不看房祖名演的电影，海报上还没他，欺骗消费者</t>
+  </si>
+  <si>
+    <t>看了人民日报的评论 赶紧来给个一星压压惊</t>
+  </si>
+  <si>
+    <t>房祖名也能上？！</t>
+  </si>
+  <si>
+    <t>原因我们都懂</t>
+  </si>
+  <si>
+    <t>吸毒抗日。</t>
+  </si>
+  <si>
+    <t>沒興趣看這種抗日神劇，影響智商！！必須給一顆星！</t>
+  </si>
+  <si>
+    <t>为了人民日报！！！！为了人民日报！！！！为了人民日报！！！！</t>
+  </si>
+  <si>
+    <t>沒錯我就是為了人民日報來的！</t>
+  </si>
+  <si>
+    <t>为人民日报评</t>
+  </si>
+  <si>
+    <t>这个时代评个分，还伤害国家电影产业了，我评分只是个人自由而已</t>
+  </si>
+  <si>
+    <t>当爹不容易，老了还得拼命带孩子刷脸</t>
+  </si>
+  <si>
+    <t>豆瓣挺住。</t>
+  </si>
+  <si>
+    <t>据说大家都来了。原因大家都懂。中国有好电影，别当人民是傻子。</t>
+  </si>
+  <si>
+    <t>恶评伤害电影产业</t>
+  </si>
+  <si>
+    <t>吸毒者归来</t>
+  </si>
+  <si>
+    <t>两只猪猪[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Princess款[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪头[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊八[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimple945[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zzzzzzzzzzzzzz[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~yeah~[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gnosis[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波塞冬的三叉戟[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtis[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.Pre[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enen[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdcTS13[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几几狗[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由的飞鹰[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nhm0122[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagan[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billie Jean[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浣熊爱学习[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvin[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏格瓦砾[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moony[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rorschach[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时候不多[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝招安韩大少[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTICHI[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红袖添乱[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布老虎[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子穆清秋ROC[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽搐的嘴唇[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.F[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lomo说[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄豆行者[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walyem[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静的心心[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREDress[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松熊[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国时代[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅唯笑[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金书架[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小烨[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3404,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection sqref="A1:A500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -3418,7 +3887,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3426,7 +3895,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>661</v>
+        <v>451</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3434,7 +3903,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>662</v>
+        <v>982</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -3442,7 +3911,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>663</v>
+        <v>983</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -3450,7 +3919,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>664</v>
+        <v>984</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -3458,7 +3927,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>665</v>
+        <v>985</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3466,7 +3935,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>666</v>
+        <v>452</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -3474,7 +3943,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>667</v>
+        <v>453</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -3482,7 +3951,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>668</v>
+        <v>454</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -3490,7 +3959,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>669</v>
+        <v>455</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -3498,7 +3967,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>670</v>
+        <v>456</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -3506,7 +3975,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>671</v>
+        <v>457</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -3514,7 +3983,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>672</v>
+        <v>458</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -3522,7 +3991,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>673</v>
+        <v>459</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -3530,7 +3999,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>674</v>
+        <v>460</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -3538,15 +4007,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>676</v>
+        <v>462</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>675</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>677</v>
+        <v>463</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -3554,7 +4023,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>678</v>
+        <v>464</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3562,7 +4031,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>679</v>
+        <v>465</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -3570,7 +4039,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>680</v>
+        <v>466</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3578,7 +4047,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>681</v>
+        <v>467</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -3586,7 +4055,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>682</v>
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -3594,7 +4063,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>683</v>
+        <v>469</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
@@ -3602,7 +4071,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>684</v>
+        <v>470</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -3626,7 +4095,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>685</v>
+        <v>471</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -3634,7 +4103,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>686</v>
+        <v>472</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
@@ -3642,7 +4111,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>687</v>
+        <v>473</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -3650,7 +4119,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>688</v>
+        <v>474</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
@@ -3658,7 +4127,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>689</v>
+        <v>475</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -3666,7 +4135,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>690</v>
+        <v>476</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
@@ -3674,7 +4143,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>691</v>
+        <v>477</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
@@ -3682,7 +4151,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>692</v>
+        <v>478</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -3690,7 +4159,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>693</v>
+        <v>479</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -3698,7 +4167,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>694</v>
+        <v>480</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -3706,7 +4175,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>695</v>
+        <v>481</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
@@ -3714,7 +4183,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>696</v>
+        <v>482</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
@@ -3722,7 +4191,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>697</v>
+        <v>483</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -3730,7 +4199,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>698</v>
+        <v>484</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -3738,7 +4207,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>699</v>
+        <v>485</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -3746,7 +4215,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>700</v>
+        <v>486</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -3754,7 +4223,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>701</v>
+        <v>487</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
@@ -3762,7 +4231,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>702</v>
+        <v>488</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
@@ -3770,7 +4239,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>703</v>
+        <v>489</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
@@ -3778,7 +4247,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>704</v>
+        <v>490</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
@@ -3786,7 +4255,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>705</v>
+        <v>491</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -3794,7 +4263,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>706</v>
+        <v>492</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
@@ -3802,7 +4271,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
@@ -3810,7 +4279,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>708</v>
+        <v>494</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -3818,7 +4287,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>709</v>
+        <v>495</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
@@ -3826,7 +4295,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>710</v>
+        <v>496</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
@@ -3834,7 +4303,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>711</v>
+        <v>497</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
@@ -3842,7 +4311,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>712</v>
+        <v>498</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
@@ -3850,7 +4319,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>713</v>
+        <v>499</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
@@ -3858,7 +4327,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
@@ -3866,7 +4335,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
@@ -3874,7 +4343,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>716</v>
+        <v>502</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
@@ -3882,7 +4351,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>717</v>
+        <v>503</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
@@ -3890,7 +4359,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>718</v>
+        <v>504</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
@@ -3898,7 +4367,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>719</v>
+        <v>505</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
@@ -3906,7 +4375,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>720</v>
+        <v>506</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
@@ -3914,7 +4383,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>721</v>
+        <v>507</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
@@ -3922,7 +4391,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
@@ -3930,7 +4399,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
@@ -3938,7 +4407,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>724</v>
+        <v>510</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
@@ -3946,7 +4415,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>725</v>
+        <v>511</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
@@ -3954,7 +4423,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>726</v>
+        <v>512</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
@@ -3962,7 +4431,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>727</v>
+        <v>513</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
@@ -3970,7 +4439,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>728</v>
+        <v>514</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
@@ -3978,7 +4447,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>729</v>
+        <v>515</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
@@ -3986,7 +4455,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>730</v>
+        <v>516</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
@@ -3994,7 +4463,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>731</v>
+        <v>517</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
@@ -4002,7 +4471,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>732</v>
+        <v>518</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
@@ -4010,7 +4479,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>733</v>
+        <v>519</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -4018,7 +4487,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>734</v>
+        <v>520</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
@@ -4026,7 +4495,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>735</v>
+        <v>521</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
@@ -4034,7 +4503,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>736</v>
+        <v>522</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
@@ -4042,7 +4511,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>737</v>
+        <v>523</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
@@ -4050,7 +4519,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>738</v>
+        <v>524</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
@@ -4058,7 +4527,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>739</v>
+        <v>525</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
@@ -4066,7 +4535,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>740</v>
+        <v>526</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
@@ -4074,7 +4543,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>741</v>
+        <v>527</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
@@ -4082,7 +4551,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>742</v>
+        <v>528</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
@@ -4090,7 +4559,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>743</v>
+        <v>529</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -4098,7 +4567,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>744</v>
+        <v>530</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -4106,7 +4575,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>745</v>
+        <v>531</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
@@ -4114,7 +4583,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>746</v>
+        <v>532</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
@@ -4122,7 +4591,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>747</v>
+        <v>533</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
@@ -4130,7 +4599,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>748</v>
+        <v>534</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
@@ -4138,7 +4607,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>749</v>
+        <v>535</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
@@ -4146,7 +4615,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>750</v>
+        <v>536</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
@@ -4154,7 +4623,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>751</v>
+        <v>537</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
@@ -4162,7 +4631,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>752</v>
+        <v>538</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
@@ -4170,7 +4639,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>753</v>
+        <v>539</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
@@ -4178,7 +4647,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>754</v>
+        <v>540</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
@@ -4186,7 +4655,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>755</v>
+        <v>541</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
@@ -4194,7 +4663,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>756</v>
+        <v>542</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
@@ -4202,7 +4671,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>757</v>
+        <v>543</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
@@ -4210,7 +4679,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>758</v>
+        <v>544</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
@@ -4218,7 +4687,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>759</v>
+        <v>545</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
@@ -4226,7 +4695,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>760</v>
+        <v>546</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
@@ -4234,7 +4703,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>761</v>
+        <v>547</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
@@ -4242,7 +4711,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>762</v>
+        <v>548</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
@@ -4250,7 +4719,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>763</v>
+        <v>549</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
@@ -4258,7 +4727,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>764</v>
+        <v>550</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
@@ -4266,7 +4735,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>765</v>
+        <v>551</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
@@ -4274,7 +4743,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>766</v>
+        <v>552</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
@@ -4282,7 +4751,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>767</v>
+        <v>553</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
@@ -4290,7 +4759,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>768</v>
+        <v>554</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
@@ -4298,7 +4767,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>769</v>
+        <v>555</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
@@ -4306,7 +4775,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>770</v>
+        <v>556</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
@@ -4314,7 +4783,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>771</v>
+        <v>557</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
@@ -4322,7 +4791,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>772</v>
+        <v>558</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
@@ -4330,7 +4799,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>773</v>
+        <v>559</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
@@ -4338,7 +4807,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>774</v>
+        <v>560</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
@@ -4346,7 +4815,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>775</v>
+        <v>561</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
@@ -4354,7 +4823,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>776</v>
+        <v>562</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
@@ -4362,7 +4831,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>777</v>
+        <v>563</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
@@ -4370,7 +4839,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>778</v>
+        <v>564</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
@@ -4378,7 +4847,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>779</v>
+        <v>565</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
@@ -4386,7 +4855,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
@@ -4394,7 +4863,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>781</v>
+        <v>567</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
@@ -4402,7 +4871,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>782</v>
+        <v>568</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
@@ -4410,7 +4879,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>783</v>
+        <v>569</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
@@ -4418,7 +4887,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
@@ -4426,7 +4895,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>785</v>
+        <v>571</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
@@ -4434,7 +4903,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>786</v>
+        <v>572</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
@@ -4442,7 +4911,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>787</v>
+        <v>573</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -4450,7 +4919,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>788</v>
+        <v>574</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>130</v>
@@ -4458,7 +4927,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>789</v>
+        <v>575</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
@@ -4466,7 +4935,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>790</v>
+        <v>576</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>132</v>
@@ -4474,7 +4943,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>791</v>
+        <v>577</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>133</v>
@@ -4482,7 +4951,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>792</v>
+        <v>578</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>134</v>
@@ -4490,7 +4959,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>793</v>
+        <v>579</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>135</v>
@@ -4498,7 +4967,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>794</v>
+        <v>580</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>136</v>
@@ -4506,7 +4975,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>795</v>
+        <v>581</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>137</v>
@@ -4514,7 +4983,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>796</v>
+        <v>582</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>138</v>
@@ -4522,7 +4991,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>797</v>
+        <v>583</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>139</v>
@@ -4530,7 +4999,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>798</v>
+        <v>584</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>140</v>
@@ -4538,7 +5007,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>799</v>
+        <v>585</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>141</v>
@@ -4546,7 +5015,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>800</v>
+        <v>586</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>142</v>
@@ -4554,7 +5023,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>801</v>
+        <v>587</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>143</v>
@@ -4562,7 +5031,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>802</v>
+        <v>588</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>144</v>
@@ -4570,7 +5039,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>803</v>
+        <v>589</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>145</v>
@@ -4578,7 +5047,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>804</v>
+        <v>590</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>146</v>
@@ -4586,7 +5055,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>805</v>
+        <v>591</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>147</v>
@@ -4594,7 +5063,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>806</v>
+        <v>592</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>148</v>
@@ -4602,7 +5071,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>807</v>
+        <v>593</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
@@ -4610,7 +5079,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>808</v>
+        <v>594</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>150</v>
@@ -4618,7 +5087,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>809</v>
+        <v>595</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>151</v>
@@ -4626,7 +5095,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>810</v>
+        <v>596</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>152</v>
@@ -4634,7 +5103,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>811</v>
+        <v>597</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>153</v>
@@ -4642,7 +5111,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>812</v>
+        <v>598</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>154</v>
@@ -4650,7 +5119,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>813</v>
+        <v>599</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>155</v>
@@ -4658,7 +5127,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>814</v>
+        <v>600</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>156</v>
@@ -4666,7 +5135,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>815</v>
+        <v>601</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>157</v>
@@ -4674,7 +5143,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>816</v>
+        <v>602</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>158</v>
@@ -4682,7 +5151,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>817</v>
+        <v>603</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>159</v>
@@ -4690,7 +5159,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>818</v>
+        <v>604</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>160</v>
@@ -4698,7 +5167,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>819</v>
+        <v>605</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>161</v>
@@ -4706,7 +5175,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>820</v>
+        <v>606</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>162</v>
@@ -4714,7 +5183,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>821</v>
+        <v>607</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>163</v>
@@ -4722,7 +5191,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>822</v>
+        <v>608</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>164</v>
@@ -4730,7 +5199,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>823</v>
+        <v>609</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>165</v>
@@ -4738,7 +5207,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>824</v>
+        <v>610</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>166</v>
@@ -4746,7 +5215,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>167</v>
@@ -4754,7 +5223,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>826</v>
+        <v>612</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>168</v>
@@ -4762,7 +5231,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>827</v>
+        <v>613</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>169</v>
@@ -4770,7 +5239,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>828</v>
+        <v>614</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>170</v>
@@ -4778,7 +5247,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
-        <v>829</v>
+        <v>615</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>171</v>
@@ -4786,7 +5255,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
-        <v>830</v>
+        <v>616</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>172</v>
@@ -4794,7 +5263,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>831</v>
+        <v>617</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>173</v>
@@ -4802,7 +5271,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>832</v>
+        <v>618</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
@@ -4810,7 +5279,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
-        <v>833</v>
+        <v>619</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>175</v>
@@ -4818,7 +5287,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
-        <v>834</v>
+        <v>620</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>176</v>
@@ -4826,7 +5295,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
-        <v>835</v>
+        <v>621</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>177</v>
@@ -4834,7 +5303,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
-        <v>836</v>
+        <v>622</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>178</v>
@@ -4842,7 +5311,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
-        <v>837</v>
+        <v>623</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>179</v>
@@ -4850,7 +5319,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
-        <v>838</v>
+        <v>624</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>180</v>
@@ -4858,7 +5327,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
-        <v>839</v>
+        <v>625</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>181</v>
@@ -4866,7 +5335,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>840</v>
+        <v>626</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>182</v>
@@ -4874,7 +5343,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>841</v>
+        <v>627</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>183</v>
@@ -4882,7 +5351,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
-        <v>842</v>
+        <v>628</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>184</v>
@@ -4890,7 +5359,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
-        <v>843</v>
+        <v>629</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>185</v>
@@ -4898,7 +5367,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
-        <v>844</v>
+        <v>630</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>186</v>
@@ -4906,7 +5375,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
-        <v>845</v>
+        <v>631</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>187</v>
@@ -4914,7 +5383,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
-        <v>846</v>
+        <v>632</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>188</v>
@@ -4922,7 +5391,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
-        <v>847</v>
+        <v>633</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>189</v>
@@ -4930,7 +5399,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
-        <v>848</v>
+        <v>634</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>190</v>
@@ -4938,7 +5407,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
-        <v>849</v>
+        <v>635</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>191</v>
@@ -4946,7 +5415,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
-        <v>850</v>
+        <v>636</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>192</v>
@@ -4954,7 +5423,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
-        <v>851</v>
+        <v>637</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>193</v>
@@ -4962,7 +5431,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
-        <v>852</v>
+        <v>638</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>194</v>
@@ -4970,7 +5439,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
-        <v>853</v>
+        <v>639</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>195</v>
@@ -4978,7 +5447,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
-        <v>854</v>
+        <v>640</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>196</v>
@@ -4986,7 +5455,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
-        <v>855</v>
+        <v>641</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>197</v>
@@ -4994,7 +5463,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
-        <v>856</v>
+        <v>642</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>198</v>
@@ -5002,7 +5471,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
-        <v>857</v>
+        <v>643</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>199</v>
@@ -5010,7 +5479,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
-        <v>858</v>
+        <v>644</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>200</v>
@@ -5018,7 +5487,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
-        <v>859</v>
+        <v>645</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>201</v>
@@ -5026,7 +5495,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
-        <v>860</v>
+        <v>646</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>202</v>
@@ -5034,7 +5503,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
-        <v>861</v>
+        <v>647</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>203</v>
@@ -5042,7 +5511,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
-        <v>862</v>
+        <v>648</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>204</v>
@@ -5050,7 +5519,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
-        <v>863</v>
+        <v>649</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>205</v>
@@ -5058,7 +5527,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
-        <v>864</v>
+        <v>650</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>51</v>
@@ -5066,7 +5535,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
-        <v>865</v>
+        <v>651</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>206</v>
@@ -5074,7 +5543,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>866</v>
+        <v>652</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>207</v>
@@ -5082,7 +5551,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>867</v>
+        <v>653</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>208</v>
@@ -5090,7 +5559,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>868</v>
+        <v>654</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>209</v>
@@ -5098,7 +5567,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>869</v>
+        <v>655</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>210</v>
@@ -5106,7 +5575,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>870</v>
+        <v>656</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>211</v>
@@ -5114,7 +5583,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
-        <v>871</v>
+        <v>657</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>212</v>
@@ -5122,7 +5591,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>213</v>
@@ -5130,7 +5599,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
-        <v>873</v>
+        <v>659</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>214</v>
@@ -5138,7 +5607,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
-        <v>874</v>
+        <v>660</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>215</v>
@@ -5146,7 +5615,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>875</v>
+        <v>661</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>216</v>
@@ -5154,7 +5623,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>876</v>
+        <v>662</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>217</v>
@@ -5162,7 +5631,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>877</v>
+        <v>663</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>218</v>
@@ -5170,7 +5639,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>878</v>
+        <v>664</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>187</v>
@@ -5178,7 +5647,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
-        <v>879</v>
+        <v>665</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>219</v>
@@ -5186,7 +5655,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
-        <v>880</v>
+        <v>666</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>220</v>
@@ -5194,7 +5663,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
-        <v>881</v>
+        <v>667</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>221</v>
@@ -5202,7 +5671,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
-        <v>882</v>
+        <v>668</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>222</v>
@@ -5210,7 +5679,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
-        <v>883</v>
+        <v>669</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>223</v>
@@ -5218,7 +5687,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
-        <v>884</v>
+        <v>670</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>224</v>
@@ -5226,7 +5695,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
-        <v>885</v>
+        <v>671</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>225</v>
@@ -5234,7 +5703,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
-        <v>886</v>
+        <v>672</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>226</v>
@@ -5242,7 +5711,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
-        <v>887</v>
+        <v>673</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>227</v>
@@ -5250,7 +5719,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>888</v>
+        <v>674</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>228</v>
@@ -5258,7 +5727,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
-        <v>889</v>
+        <v>675</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>229</v>
@@ -5266,7 +5735,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
-        <v>890</v>
+        <v>676</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>230</v>
@@ -5274,7 +5743,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
-        <v>891</v>
+        <v>677</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>231</v>
@@ -5282,7 +5751,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
-        <v>892</v>
+        <v>678</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>232</v>
@@ -5290,7 +5759,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
-        <v>893</v>
+        <v>679</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>233</v>
@@ -5298,7 +5767,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
-        <v>894</v>
+        <v>680</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>234</v>
@@ -5306,7 +5775,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
-        <v>895</v>
+        <v>681</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>235</v>
@@ -5314,7 +5783,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
-        <v>896</v>
+        <v>682</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>236</v>
@@ -5322,7 +5791,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
-        <v>897</v>
+        <v>683</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>237</v>
@@ -5330,7 +5799,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
-        <v>898</v>
+        <v>684</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>238</v>
@@ -5338,7 +5807,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
-        <v>899</v>
+        <v>685</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>239</v>
@@ -5346,7 +5815,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
-        <v>900</v>
+        <v>686</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>187</v>
@@ -5354,7 +5823,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
-        <v>901</v>
+        <v>687</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>240</v>
@@ -5362,7 +5831,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
-        <v>902</v>
+        <v>688</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>241</v>
@@ -5370,7 +5839,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
-        <v>903</v>
+        <v>689</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>242</v>
@@ -5378,7 +5847,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
-        <v>904</v>
+        <v>690</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>243</v>
@@ -5386,7 +5855,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
-        <v>905</v>
+        <v>691</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>244</v>
@@ -5394,7 +5863,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
-        <v>906</v>
+        <v>692</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>245</v>
@@ -5402,7 +5871,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>907</v>
+        <v>693</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>246</v>
@@ -5410,7 +5879,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
-        <v>908</v>
+        <v>694</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>247</v>
@@ -5418,7 +5887,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
-        <v>909</v>
+        <v>695</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>248</v>
@@ -5426,7 +5895,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
-        <v>910</v>
+        <v>696</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>249</v>
@@ -5434,175 +5903,175 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
-        <v>252</v>
+        <v>698</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>699</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>700</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>258</v>
+        <v>701</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
-        <v>260</v>
+        <v>702</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
-        <v>262</v>
+        <v>703</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
-        <v>264</v>
+        <v>704</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>705</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
-        <v>268</v>
+        <v>706</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
-        <v>270</v>
+        <v>707</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
-        <v>272</v>
+        <v>708</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
-        <v>274</v>
+        <v>709</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
-        <v>276</v>
+        <v>710</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
-        <v>280</v>
+        <v>712</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
-        <v>282</v>
+        <v>713</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>284</v>
+        <v>714</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
-        <v>286</v>
+        <v>715</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
-        <v>288</v>
+        <v>716</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
-        <v>290</v>
+        <v>717</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
-        <v>292</v>
+        <v>718</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>187</v>
@@ -5610,47 +6079,47 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
-        <v>293</v>
+        <v>719</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
-        <v>295</v>
+        <v>720</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
-        <v>297</v>
+        <v>721</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
-        <v>299</v>
+        <v>722</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
-        <v>301</v>
+        <v>723</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
-        <v>303</v>
+        <v>724</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>73</v>
@@ -5658,167 +6127,167 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
-        <v>304</v>
+        <v>725</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
-        <v>306</v>
+        <v>726</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
-        <v>308</v>
+        <v>727</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
-        <v>310</v>
+        <v>728</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
-        <v>312</v>
+        <v>729</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
-        <v>314</v>
+        <v>730</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
-        <v>73</v>
+        <v>731</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
-        <v>317</v>
+        <v>732</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
-        <v>318</v>
+        <v>733</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
-        <v>320</v>
+        <v>734</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
-        <v>322</v>
+        <v>735</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
-        <v>324</v>
+        <v>736</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
-        <v>326</v>
+        <v>737</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
-        <v>328</v>
+        <v>738</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
-        <v>330</v>
+        <v>739</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
-        <v>332</v>
+        <v>740</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
-        <v>334</v>
+        <v>741</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
-        <v>336</v>
+        <v>742</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
-        <v>338</v>
+        <v>743</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
-        <v>340</v>
+        <v>744</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
-        <v>342</v>
+        <v>745</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>51</v>
@@ -5826,7 +6295,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
-        <v>343</v>
+        <v>746</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>187</v>
@@ -5834,231 +6303,231 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
-        <v>346</v>
+        <v>748</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
-        <v>348</v>
+        <v>749</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
-        <v>352</v>
+        <v>751</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
-        <v>354</v>
+        <v>752</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
-        <v>356</v>
+        <v>753</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
-        <v>358</v>
+        <v>754</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
-        <v>360</v>
+        <v>755</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
-        <v>362</v>
+        <v>756</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
-        <v>364</v>
+        <v>757</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
-        <v>366</v>
+        <v>758</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
-        <v>368</v>
+        <v>759</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
-        <v>370</v>
+        <v>760</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
-        <v>372</v>
+        <v>761</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
-        <v>374</v>
+        <v>762</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
-        <v>377</v>
+        <v>763</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
-        <v>378</v>
+        <v>764</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
-        <v>380</v>
+        <v>765</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
-        <v>382</v>
+        <v>766</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
-        <v>384</v>
+        <v>767</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
-        <v>386</v>
+        <v>768</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="10.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
-        <v>388</v>
+        <v>769</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
-        <v>390</v>
+        <v>770</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
-        <v>392</v>
+        <v>771</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
-        <v>394</v>
+        <v>772</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
-        <v>396</v>
+        <v>773</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
-        <v>398</v>
+        <v>774</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>241</v>
@@ -6066,279 +6535,279 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
-        <v>401</v>
+        <v>776</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
-        <v>403</v>
+        <v>777</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
-        <v>405</v>
+        <v>778</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
-        <v>407</v>
+        <v>779</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
-        <v>409</v>
+        <v>780</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
-        <v>411</v>
+        <v>781</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
-        <v>413</v>
+        <v>782</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
-        <v>415</v>
+        <v>783</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>417</v>
+        <v>784</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
-        <v>419</v>
+        <v>785</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
-        <v>421</v>
+        <v>786</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
-        <v>423</v>
+        <v>787</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>424</v>
+        <v>334</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
-        <v>425</v>
+        <v>788</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
-        <v>427</v>
+        <v>789</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
-        <v>429</v>
+        <v>790</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
-        <v>431</v>
+        <v>791</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
-        <v>433</v>
+        <v>792</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
-        <v>435</v>
+        <v>793</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
-        <v>437</v>
+        <v>794</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
-        <v>441</v>
+        <v>796</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
-        <v>443</v>
+        <v>797</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
-        <v>445</v>
+        <v>798</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
-        <v>447</v>
+        <v>799</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>449</v>
+        <v>800</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>450</v>
+        <v>347</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>451</v>
+        <v>801</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
-        <v>453</v>
+        <v>802</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>454</v>
+        <v>349</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
-        <v>455</v>
+        <v>803</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
-        <v>459</v>
+        <v>805</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
-        <v>461</v>
+        <v>806</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
-        <v>463</v>
+        <v>807</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
-        <v>465</v>
+        <v>808</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>466</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
-        <v>467</v>
+        <v>809</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>468</v>
+        <v>356</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
-        <v>469</v>
+        <v>810</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>73</v>
@@ -6346,778 +6815,1074 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
-        <v>470</v>
+        <v>811</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
-        <v>472</v>
+        <v>812</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
-        <v>474</v>
+        <v>813</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
-        <v>476</v>
+        <v>814</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>477</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
-        <v>478</v>
+        <v>815</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
-        <v>480</v>
+        <v>816</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
-        <v>482</v>
+        <v>817</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
-        <v>484</v>
+        <v>818</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>485</v>
+        <v>364</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
-        <v>488</v>
+        <v>820</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>489</v>
+        <v>366</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
-        <v>490</v>
+        <v>821</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>491</v>
+        <v>367</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
-        <v>492</v>
+        <v>822</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>493</v>
+        <v>368</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
-        <v>494</v>
+        <v>823</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
-        <v>496</v>
+        <v>824</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>497</v>
+        <v>370</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>499</v>
+        <v>371</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
-        <v>500</v>
+        <v>826</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>501</v>
+        <v>372</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
-        <v>502</v>
+        <v>827</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>503</v>
+        <v>373</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
-        <v>504</v>
+        <v>828</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>505</v>
+        <v>374</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
-        <v>506</v>
+        <v>829</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>507</v>
+        <v>375</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
-        <v>508</v>
+        <v>830</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>509</v>
+        <v>376</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
-        <v>510</v>
+        <v>831</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
-        <v>512</v>
+        <v>832</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>513</v>
+        <v>378</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
-        <v>514</v>
+        <v>833</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>515</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
-        <v>516</v>
+        <v>834</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>517</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
-        <v>518</v>
+        <v>835</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>519</v>
+        <v>381</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
-        <v>520</v>
+        <v>836</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>521</v>
+        <v>43</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
-        <v>522</v>
+        <v>837</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
-        <v>523</v>
+        <v>838</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>524</v>
+        <v>383</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
-        <v>525</v>
+        <v>839</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>526</v>
+        <v>384</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396" s="1" t="s">
-        <v>527</v>
+        <v>840</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>528</v>
+        <v>385</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397" s="1" t="s">
-        <v>529</v>
+        <v>841</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
-        <v>531</v>
+        <v>842</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>532</v>
+        <v>387</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399" s="1" t="s">
-        <v>533</v>
+        <v>843</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>534</v>
+        <v>388</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400" s="1" t="s">
-        <v>535</v>
+        <v>844</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>536</v>
+        <v>389</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
-        <v>537</v>
+        <v>845</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>538</v>
+        <v>51</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402" s="1" t="s">
-        <v>539</v>
+        <v>846</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>51</v>
+        <v>390</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403" s="1" t="s">
-        <v>540</v>
+        <v>847</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
-        <v>542</v>
+        <v>848</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>543</v>
+        <v>392</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405" s="1" t="s">
-        <v>544</v>
+        <v>849</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>545</v>
+        <v>185</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
-        <v>546</v>
+        <v>850</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>548</v>
+        <v>394</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408" s="1" t="s">
-        <v>549</v>
+        <v>852</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>550</v>
+        <v>395</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
-        <v>551</v>
+        <v>853</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
-        <v>553</v>
+        <v>854</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>554</v>
+        <v>397</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411" s="1" t="s">
-        <v>555</v>
+        <v>855</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>556</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
-        <v>557</v>
+        <v>856</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>558</v>
+        <v>399</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
-        <v>559</v>
+        <v>857</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>560</v>
+        <v>400</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414" s="1" t="s">
-        <v>561</v>
+        <v>858</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>562</v>
+        <v>401</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415" s="1" t="s">
-        <v>563</v>
+        <v>859</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>564</v>
+        <v>402</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416" s="1" t="s">
-        <v>565</v>
+        <v>860</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>566</v>
+        <v>403</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
-        <v>567</v>
+        <v>861</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>568</v>
+        <v>404</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418" s="1" t="s">
-        <v>569</v>
+        <v>862</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>570</v>
+        <v>405</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
-        <v>571</v>
+        <v>863</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>572</v>
+        <v>406</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
-        <v>573</v>
+        <v>864</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>574</v>
+        <v>407</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421" s="1" t="s">
-        <v>575</v>
+        <v>865</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>576</v>
+        <v>408</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
-        <v>577</v>
+        <v>866</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>578</v>
+        <v>409</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423" s="1" t="s">
-        <v>579</v>
+        <v>867</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>580</v>
+        <v>410</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424" s="1" t="s">
-        <v>581</v>
+        <v>868</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>582</v>
+        <v>411</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
-        <v>583</v>
+        <v>869</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>584</v>
+        <v>412</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
-        <v>585</v>
+        <v>870</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>586</v>
+        <v>413</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427" s="1" t="s">
-        <v>587</v>
+        <v>871</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>588</v>
+        <v>414</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
-        <v>589</v>
+        <v>872</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>590</v>
+        <v>415</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429" s="1" t="s">
-        <v>591</v>
+        <v>873</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>592</v>
+        <v>416</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430" s="1" t="s">
-        <v>593</v>
+        <v>874</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>594</v>
+        <v>417</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431" s="1" t="s">
-        <v>595</v>
+        <v>875</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>596</v>
+        <v>418</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432" s="1" t="s">
-        <v>597</v>
+        <v>876</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>598</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433" s="1" t="s">
-        <v>599</v>
+        <v>877</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>600</v>
+        <v>420</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
-        <v>601</v>
+        <v>878</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>602</v>
+        <v>421</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435" s="1" t="s">
-        <v>603</v>
+        <v>879</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>604</v>
+        <v>422</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436" s="1" t="s">
-        <v>605</v>
+        <v>880</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>606</v>
+        <v>423</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
-        <v>607</v>
+        <v>881</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>608</v>
+        <v>424</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438" s="1" t="s">
-        <v>609</v>
+        <v>882</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>610</v>
+        <v>425</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
-        <v>611</v>
+        <v>883</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>612</v>
+        <v>426</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
-        <v>613</v>
+        <v>884</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>614</v>
+        <v>427</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441" s="1" t="s">
-        <v>615</v>
+        <v>885</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="1" t="s">
-        <v>617</v>
+        <v>886</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
-        <v>619</v>
+        <v>887</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>620</v>
+        <v>430</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
-        <v>621</v>
+        <v>888</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>622</v>
+        <v>431</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445" s="1" t="s">
-        <v>623</v>
+        <v>889</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>624</v>
+        <v>432</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
-        <v>625</v>
+        <v>890</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>626</v>
+        <v>433</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A447" s="1">
-        <v>813</v>
+      <c r="A447" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>627</v>
+        <v>434</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448" s="1" t="s">
-        <v>628</v>
+        <v>892</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449" s="1" t="s">
-        <v>630</v>
+        <v>893</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450" s="1" t="s">
-        <v>632</v>
+        <v>894</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>633</v>
+        <v>437</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
-        <v>634</v>
+        <v>895</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>635</v>
+        <v>438</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
-        <v>636</v>
+        <v>896</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>637</v>
+        <v>439</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453" s="1" t="s">
-        <v>638</v>
+        <v>897</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>639</v>
+        <v>440</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454" s="1" t="s">
-        <v>640</v>
+        <v>898</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>641</v>
+        <v>441</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
-        <v>642</v>
+        <v>899</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>643</v>
+        <v>442</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
-        <v>644</v>
+        <v>900</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>645</v>
+        <v>443</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457" s="1" t="s">
-        <v>646</v>
+        <v>901</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>647</v>
+        <v>444</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
-        <v>648</v>
+        <v>902</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>649</v>
+        <v>445</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459" s="1" t="s">
-        <v>650</v>
+        <v>903</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>651</v>
+        <v>446</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460" s="1" t="s">
-        <v>652</v>
+        <v>904</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>653</v>
+        <v>447</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
-        <v>654</v>
+        <v>905</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>655</v>
+        <v>448</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462" s="1" t="s">
-        <v>656</v>
+        <v>906</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>657</v>
+        <v>449</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463" s="1" t="s">
-        <v>658</v>
+        <v>944</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>659</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A464" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A465" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A466" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A467" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A468" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A469" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A470" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A471" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A472" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A473" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A474" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A475" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A476" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A477" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A478" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A479" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A480" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A481" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A482" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A483" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A484" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A485" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A486" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A487" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A488" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A489" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A490" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A491" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A492" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A493" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A494" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A495" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A496" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A497" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A498" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A499" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A500" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
